--- a/HIS/Plugins/HIS.Desktop.Plugins.HisIcdGroup/HIS.Desktop.Plugins.HisIcdGroup/Resources/ModuleKeyLanguage.xlsx
+++ b/HIS/Plugins/HIS.Desktop.Plugins.HisIcdGroup/HIS.Desktop.Plugins.HisIcdGroup/Resources/ModuleKeyLanguage.xlsx
@@ -85,100 +85,103 @@
     <t>frmIcdGroup.chkICD.Properties.Caption</t>
   </si>
   <si>
+    <t>Chặn cùng nhóm ICD</t>
+  </si>
+  <si>
+    <t>Check with the ICD team</t>
+  </si>
+  <si>
+    <t>ICD အဖွဲ့နှင့် စစ်ဆေးပါ။</t>
+  </si>
+  <si>
+    <t>frmIcdGroup.chkICD.ToolTip</t>
+  </si>
+  <si>
+    <t>Chặn chẩn đoán nếu cùng nhóm với ICD cũ trong đợt điều trị</t>
+  </si>
+  <si>
+    <t>Check the diagnosis if it is in the same group as the old ICD during treatment</t>
+  </si>
+  <si>
+    <t>ကုသနေစဉ်အတွင်း ICD အဟောင်းနှင့် အုပ်စုတူရှိမရှိ စစ်ဆေးပါ။</t>
+  </si>
+  <si>
+    <t>frmIcdGroup.gridColumn10.Caption</t>
+  </si>
+  <si>
+    <t>Người tạo</t>
+  </si>
+  <si>
+    <t>Creator</t>
+  </si>
+  <si>
+    <t>ဖန်ဆင်းရှင်</t>
+  </si>
+  <si>
+    <t>frmIcdGroup.gridColumn11.Caption</t>
+  </si>
+  <si>
+    <t>Thời gian sửa</t>
+  </si>
+  <si>
+    <t>Repair time</t>
+  </si>
+  <si>
+    <t>ပြုပြင်ချိန်</t>
+  </si>
+  <si>
+    <t>frmIcdGroup.gridColumn2.Caption</t>
+  </si>
+  <si>
+    <t>Người sửa</t>
+  </si>
+  <si>
+    <t>Fixer</t>
+  </si>
+  <si>
+    <t>ပီပြင်သည်</t>
+  </si>
+  <si>
+    <t>frmIcdGroup.gridColumn3.Caption</t>
+  </si>
+  <si>
+    <t>frmIcdGroup.gridColumn4.Caption</t>
+  </si>
+  <si>
+    <t>LOCK</t>
+  </si>
+  <si>
+    <t>လော့ခ်ချပါ။</t>
+  </si>
+  <si>
+    <t>frmIcdGroup.gridColumn5.Caption</t>
+  </si>
+  <si>
+    <t>Mã nhóm ICD</t>
+  </si>
+  <si>
+    <t>ICD group code</t>
+  </si>
+  <si>
+    <t>ICD အုပ်စုကုဒ်</t>
+  </si>
+  <si>
+    <t>frmIcdGroup.gridColumn6.Caption</t>
+  </si>
+  <si>
+    <t>Tên nhóm ICD</t>
+  </si>
+  <si>
+    <t>ICD group name</t>
+  </si>
+  <si>
+    <t>ICD အဖွဲ့အမည်</t>
+  </si>
+  <si>
+    <t>frmIcdGroup.gridColumn7.Caption</t>
+  </si>
+  <si>
     <t>Kiểm tra cùng nhóm ICD</t>
-  </si>
-  <si>
-    <t>Check with the ICD team</t>
-  </si>
-  <si>
-    <t>ICD အဖွဲ့နှင့် စစ်ဆေးပါ။</t>
-  </si>
-  <si>
-    <t>frmIcdGroup.chkICD.ToolTip</t>
-  </si>
-  <si>
-    <t>Kiểm tra chẩn đoán nếu cùng nhóm với ICD cũ trong đợt điều trị</t>
-  </si>
-  <si>
-    <t>Check the diagnosis if it is in the same group as the old ICD during treatment</t>
-  </si>
-  <si>
-    <t>ကုသနေစဉ်အတွင်း ICD အဟောင်းနှင့် အုပ်စုတူရှိမရှိ စစ်ဆေးပါ။</t>
-  </si>
-  <si>
-    <t>frmIcdGroup.gridColumn10.Caption</t>
-  </si>
-  <si>
-    <t>Người tạo</t>
-  </si>
-  <si>
-    <t>Creator</t>
-  </si>
-  <si>
-    <t>ဖန်ဆင်းရှင်</t>
-  </si>
-  <si>
-    <t>frmIcdGroup.gridColumn11.Caption</t>
-  </si>
-  <si>
-    <t>Thời gian sửa</t>
-  </si>
-  <si>
-    <t>Repair time</t>
-  </si>
-  <si>
-    <t>ပြုပြင်ချိန်</t>
-  </si>
-  <si>
-    <t>frmIcdGroup.gridColumn2.Caption</t>
-  </si>
-  <si>
-    <t>Người sửa</t>
-  </si>
-  <si>
-    <t>Fixer</t>
-  </si>
-  <si>
-    <t>ပီပြင်သည်</t>
-  </si>
-  <si>
-    <t>frmIcdGroup.gridColumn3.Caption</t>
-  </si>
-  <si>
-    <t>frmIcdGroup.gridColumn4.Caption</t>
-  </si>
-  <si>
-    <t>LOCK</t>
-  </si>
-  <si>
-    <t>လော့ခ်ချပါ။</t>
-  </si>
-  <si>
-    <t>frmIcdGroup.gridColumn5.Caption</t>
-  </si>
-  <si>
-    <t>Mã nhóm ICD</t>
-  </si>
-  <si>
-    <t>ICD group code</t>
-  </si>
-  <si>
-    <t>ICD အုပ်စုကုဒ်</t>
-  </si>
-  <si>
-    <t>frmIcdGroup.gridColumn6.Caption</t>
-  </si>
-  <si>
-    <t>Tên nhóm ICD</t>
-  </si>
-  <si>
-    <t>ICD group name</t>
-  </si>
-  <si>
-    <t>ICD အဖွဲ့အမည်</t>
-  </si>
-  <si>
-    <t>frmIcdGroup.gridColumn7.Caption</t>
   </si>
   <si>
     <t>frmIcdGroup.gridColumn8.Caption</t>
@@ -873,7 +876,7 @@
         <v>54</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>24</v>
@@ -886,129 +889,129 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F23" s="2"/>
     </row>
